--- a/Data/Ex1.xlsx
+++ b/Data/Ex1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Colab Notebooks\Python\Python Projects\truss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Github\truss_solver\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6C1DEA-3117-4BC7-8462-553E04B9C445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D226683F-3717-4C25-9BF8-87C332910070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element" sheetId="1" r:id="rId1"/>
-    <sheet name="Node" sheetId="2" r:id="rId2"/>
+    <sheet name="Joint" sheetId="2" r:id="rId2"/>
     <sheet name="MD_Solid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -63,9 +63,6 @@
     <t>End</t>
   </si>
   <si>
-    <t>Node</t>
-  </si>
-  <si>
     <t>RX</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Joint</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -537,47 +537,47 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AA28D2-1943-4E77-B002-B77B0083F7E8}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -601,7 +601,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -610,16 +610,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -717,7 +717,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <f>17*2</f>
@@ -741,7 +741,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <f>17*3</f>
@@ -765,7 +765,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <f>17*3</f>
@@ -789,7 +789,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <f>17*4</f>
@@ -820,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C2F2DD-D2C5-4021-BAB0-99E8190ABBDA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="76" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="76" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>

--- a/Data/Ex1.xlsx
+++ b/Data/Ex1.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Github\truss_solver\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D226683F-3717-4C25-9BF8-87C332910070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE91BDCA-F63A-4F52-8630-5A6894A41BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element" sheetId="1" r:id="rId1"/>
     <sheet name="Joint" sheetId="2" r:id="rId2"/>
-    <sheet name="MD_Solid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,55 +142,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>408286</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>170762</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DEE9D5A-A861-415E-B585-736DBE9D45F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="0"/>
-          <a:ext cx="10314286" cy="5504762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,9 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -590,9 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AA28D2-1943-4E77-B002-B77B0083F7E8}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -814,19 +760,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C2F2DD-D2C5-4021-BAB0-99E8190ABBDA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="76" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>